--- a/publication/analyses/outputs/supfigs/global-averaged_performance_w_GDPTlab.xlsx
+++ b/publication/analyses/outputs/supfigs/global-averaged_performance_w_GDPTlab.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.95649861250216</v>
+        <v>0.9564986125021595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="D2" t="n">
         <v>5104</v>
@@ -512,19 +512,19 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5248562840851071</v>
+        <v>0.5248562840802717</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4794191554825576</v>
+        <v>0.4794191554409942</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7108564169980006</v>
+        <v>0.7108564169663991</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4368212139013902</v>
+        <v>0.4368212140334995</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8343438251113983</v>
+        <v>0.8343438251536398</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         <v>0.9292278968751633</v>
       </c>
       <c r="C3" t="n">
-        <v>1.615307186802609</v>
+        <v>1.615307433936272</v>
       </c>
       <c r="D3" t="n">
         <v>1977</v>
@@ -549,19 +549,19 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3383571169547176</v>
+        <v>0.3383571179462308</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4136789058781119</v>
+        <v>0.4136789054127073</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5344303282584365</v>
+        <v>0.5344303285259315</v>
       </c>
       <c r="J3" t="n">
-        <v>1.055971845676007</v>
+        <v>1.055971845592578</v>
       </c>
       <c r="K3" t="n">
-        <v>1.183508476785364</v>
+        <v>1.183508476831717</v>
       </c>
     </row>
     <row r="4">
@@ -574,7 +574,7 @@
         <v>0.9514446985067562</v>
       </c>
       <c r="C4" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="D4" t="n">
         <v>2505</v>
@@ -586,19 +586,19 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4308428026039726</v>
+        <v>0.4308428023943353</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5512810165315727</v>
+        <v>0.5512810169935485</v>
       </c>
       <c r="I4" t="n">
-        <v>0.699668692842355</v>
+        <v>0.6996686930772631</v>
       </c>
       <c r="J4" t="n">
-        <v>1.053304404836988</v>
+        <v>1.053304404503535</v>
       </c>
       <c r="K4" t="n">
-        <v>1.264510359385297</v>
+        <v>1.264510359237516</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/supfigs/global-averaged_performance_w_GDPTlab.xlsx
+++ b/publication/analyses/outputs/supfigs/global-averaged_performance_w_GDPTlab.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9564986125021595</v>
+        <v>0.9564986125021606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="D2" t="n">
         <v>5104</v>
@@ -512,19 +512,19 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5248562840802717</v>
+        <v>0.5248562841031512</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4794191554409942</v>
+        <v>0.4794191554360129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7108564169663991</v>
+        <v>0.7108564169799325</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4368212140334995</v>
+        <v>0.436821214158867</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8343438251536398</v>
+        <v>0.8343438252308064</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         <v>0.9292278968751633</v>
       </c>
       <c r="C3" t="n">
-        <v>1.615307433936272</v>
+        <v>1.615307630718741</v>
       </c>
       <c r="D3" t="n">
         <v>1977</v>
@@ -549,19 +549,19 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3383571179462308</v>
+        <v>0.3383571183786774</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4136789054127073</v>
+        <v>0.4136789046926929</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5344303285259315</v>
+        <v>0.5344303282423897</v>
       </c>
       <c r="J3" t="n">
-        <v>1.055971845592578</v>
+        <v>1.055971845824642</v>
       </c>
       <c r="K3" t="n">
-        <v>1.183508476831717</v>
+        <v>1.183508476910736</v>
       </c>
     </row>
     <row r="4">
@@ -574,7 +574,7 @@
         <v>0.9514446985067562</v>
       </c>
       <c r="C4" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="D4" t="n">
         <v>2505</v>
@@ -586,19 +586,19 @@
         <v>0.4518398268398268</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4308428023943353</v>
+        <v>0.4308428024767466</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5512810169935485</v>
+        <v>0.5512810165706916</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6996686930772631</v>
+        <v>0.6996686927948342</v>
       </c>
       <c r="J4" t="n">
-        <v>1.053304404503535</v>
+        <v>1.053304404928877</v>
       </c>
       <c r="K4" t="n">
-        <v>1.264510359237516</v>
+        <v>1.264510359435544</v>
       </c>
     </row>
   </sheetData>
